--- a/test/mito_ncbi.xlsx
+++ b/test/mito_ncbi.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1912 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>assembly_accesion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bioprojects</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SRA_accession</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>organism_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GCA_014217455.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA549344', 'title': 'The genome of Candida auris in Shenyang, China'}]}]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'A1'}, {'db': 'SRA', 'value': 'SRS4986047'}]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GCA_014638765.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE10'}, {'db': 'SRA', 'value': 'SRS7388898'}]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GCA_014638775.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE09'}, {'db': 'SRA', 'value': 'SRS7388897'}]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GCA_014638805.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE08'}, {'db': 'SRA', 'value': 'SRS7388896'}]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GCA_014638825.1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE07'}, {'db': 'SRA', 'value': 'SRS7388895'}]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GCA_014638875.1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE06'}, {'db': 'SRA', 'value': 'SRS7388894'}]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GCA_014638885.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE05'}, {'db': 'SRA', 'value': 'SRS7388893'}]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GCA_014638895.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE04'}, {'db': 'SRA', 'value': 'SRS7388892'}]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GCA_014638955.1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE02'}, {'db': 'SRA', 'value': 'SRS7388890'}]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GCA_014638965.1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE03'}, {'db': 'SRA', 'value': 'SRS7388891'}]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GCA_014673535.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA655187', 'title': 'Candida auris Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FG_GE01'}, {'db': 'SRA', 'value': 'SRS7388889'}]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GCA_018831645.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA691446', 'title': 'Genomic analysis of two Candida auris strains BJCA002 but not BJCA001'}]}]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'CaurisBJCA001'}, {'db': 'SRA', 'value': 'SRS8023108'}]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GCA_018902005.1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA691446', 'title': 'Genomic analysis of two Candida auris strains BJCA002 but not BJCA001'}]}]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'CaurisBJCA002'}, {'db': 'SRA', 'value': 'SRS8023109'}]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GCA_019968925.1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA686013', 'title': 'Draft genome sequencing of an Egyptian Candida auris isolate'}]}]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'CAU924/6920'}, {'db': 'SRA', 'value': 'SRS8004171'}]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GCA_020809265.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA704033', 'title': '[Candida] auris strain:L1537/2020 Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'L1537/2020'}, {'db': 'SRA', 'value': 'SRS8307064'}]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[Candida] auris</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GCA_900106115.1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB14359', 'title': 'Assembly of two Candida intermedia strains CBS 141442 and PYCC 4715'}]}]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS1200120'}]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[Candida] intermedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GCA_900106125.1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB14359', 'title': 'Assembly of two Candida intermedia strains CBS 141442 and PYCC 4715'}]}]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS1200119'}]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[Candida] intermedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GCA_943733655.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB50290', 'title': 'Draft genome of Candida jaroonii CLIB 1444 isolated from an insect larva in French Guiana'}]}]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS9990629'}]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[Candida] jaroonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GCA_003342985.1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA433110', 'title': 'Comparative genomics of flightless and volant Palaeognathae'}]}]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'aptHaa_ROM_R29945'}, {'db': 'SRA', 'value': 'SRS3107721'}]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Apteryx haastii</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GCA_003342965.1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA433110', 'title': 'Comparative genomics of flightless and volant Palaeognathae'}]}]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'aptOwe_ROM_O20599'}, {'db': 'SRA', 'value': 'SRS3107715'}]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Apteryx owenii</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GCF_003343035.1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA433110', 'title': 'Comparative genomics of flightless and volant Palaeognathae'}]}]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'aptRow_ROM_R43461'}, {'db': 'SRA', 'value': 'SRS3107720'}]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Apteryx rowi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GCA_003343035.1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA433110', 'title': 'Comparative genomics of flightless and volant Palaeognathae'}]}]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'aptRow_ROM_R43461'}, {'db': 'SRA', 'value': 'SRS3107720'}]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Apteryx rowi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GCA_003342895.1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA433110', 'title': 'Comparative genomics of flightless and volant Palaeognathae'}]}]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'casCas_ANWC_B32419'}, {'db': 'SRA', 'value': 'SRS3107718'}]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Casuarius casuarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GCF_029603195.1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA932843', 'title': 'Long-read genome sequencing of Condylostylus longicornis'}]}]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FDR11'}, {'db': 'SRA', 'value': 'SRS16714585'}]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Condylostylus longicornis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GCA_029603195.2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA932843', 'title': 'Long-read genome sequencing of Condylostylus longicornis'}]}]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'FDR11'}, {'db': 'SRA', 'value': 'SRS16714585'}]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Condylostylus longicornis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GCA_948150665.1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB58875', 'title': 'Conistra vaccinii (the chestnut) genome assembly, ilConVacc3', 'parent_accessions': ['PRJEB57660']}, {'accession': 'PRJEB57660', 'title': 'Conistra vaccinii (the chestnut)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS7092510'}]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Conistra vaccinii</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GCA_948455865.1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB59110', 'title': 'Conomelus anceps genome assembly, ihConAnce4', 'parent_accessions': ['PRJEB58256']}, {'accession': 'PRJEB58256', 'title': 'Conomelus anceps', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS10596749'}]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Conomelus anceps</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GCA_949752815.1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB60888', 'title': 'Conops quadrifasciatus (yellow-banded conops) genome assembly, idConQuad1', 'parent_accessions': ['PRJEB59143']}, {'accession': 'PRJEB59143', 'title': 'Conops quadrifasciatus (yellow-banded conops)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS6287775'}]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Conops quadrifasciatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GCF_018398675.1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA715481', 'title': 'Coregonus clupeaformis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Whitefish sequenced for genome nanopore'}, {'db': 'SRA', 'value': 'SRS12469914'}]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Coregonus clupeaformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GCF_020615455.1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA767633', 'title': 'Coregonus clupeaformis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Dwarf whitefish sequenced for genome nanopore'}, {'db': 'SRA', 'value': 'SRS12470342'}]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Coregonus clupeaformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GCA_020615455.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA767633', 'title': 'Coregonus clupeaformis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Dwarf whitefish sequenced for genome nanopore'}, {'db': 'SRA', 'value': 'SRS12470342'}]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Coregonus clupeaformis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GCA_944989445.1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB41734', 'title': 'Draft genome assembly of raccoon dog (Nyctereutes procyonoides)', 'parent_accessions': ['PRJNA706923']}, {'accession': 'PRJNA706923', 'title': 'LOEWE Centre for Translational Biodiversity Genomics (LOEWE-TBG)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS12282076'}]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ampullaceana balthica</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GCA_002284835.2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA285814', 'title': 'Aquarana catesbeiana isolate:Bruno Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'brunoMaleBullFrogLiver'}, {'db': 'SRA', 'value': 'SRS977980'}]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Aquarana catesbeiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GCA_008452705.1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA505097', 'title': 'Wheat and barley pathogen Bipolaris sorokinanaWheat pathogen Parastagonospora nodorum Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'WAI2406'}, {'db': 'SRA', 'value': 'SRS4323684'}]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bipolaris sorokiniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GCA_008452715.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA505097', 'title': 'Wheat and barley pathogen Bipolaris sorokinanaWheat pathogen Parastagonospora nodorum Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'WAI2411'}, {'db': 'SRA', 'value': 'SRS4323685'}]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bipolaris sorokiniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GCA_008452725.1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA505097', 'title': 'Wheat and barley pathogen Bipolaris sorokinanaWheat pathogen Parastagonospora nodorum Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'BRIP27492a'}, {'db': 'SRA', 'value': 'SRS1753053'}]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bipolaris sorokiniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GCA_008452735.1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA505097', 'title': 'Wheat and barley pathogen Bipolaris sorokinanaWheat pathogen Parastagonospora nodorum Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'BRIP10943a'}, {'db': 'SRA', 'value': 'SRS1753054'}]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bipolaris sorokiniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GCF_008122165.1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA369439', 'title': 'Sequence and assembly of great-ape genomes including annotation and comparative analyses using long- and short-read sequencing modalities.'}]}]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Kamilah gorilla'}, {'db': 'SRA', 'value': 'SRS4489353'}]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Gorilla gorilla gorilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GCA_008122165.1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA369439', 'title': 'Sequence and assembly of great-ape genomes including annotation and comparative analyses using long- and short-read sequencing modalities.'}]}]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Kamilah gorilla'}, {'db': 'SRA', 'value': 'SRS4489353'}]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gorilla gorilla gorilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GCA_002884475.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA369439', 'title': 'Sequence and assembly of great-ape genomes including annotation and comparative analyses using long- and short-read sequencing modalities.'}]}]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'NA19240'}, {'db': 'SRA', 'value': 'SRS988474'}]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GCA_002884485.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA369439', 'title': 'Sequence and assembly of great-ape genomes including annotation and comparative analyses using long- and short-read sequencing modalities.'}]}]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'CHM13htert'}, {'db': 'SRA', 'value': 'SRS798661'}]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GCA_022533605.1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA772704', 'title': 'Komagataella kurtzmanii strain VKPM Y-727 genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Sample of Komagataella kurtzmanii strain VKPM Y-727'}, {'db': 'SRA', 'value': 'SRS10670405'}]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Komagataella kurtzmanii</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GCA_000223565.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEA62483', 'title': 'Pichia pastoris CBS 7435 genome sequencing'}]}]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS379707'}]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Komagataella phaffii CBS 7435</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GCA_019155655.1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA706002', 'title': 'Kregervanrija delftensis strain:NCC-J Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Kregervanrija delftensis NCC-J'}, {'db': 'SRA', 'value': 'SRS8397865'}]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Kregervanrija delftensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GCF_001649575.2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA626665', 'title': 'Kryptolebias marmoratus genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'kryMar.v1'}, {'db': 'SRA', 'value': 'SRS2786391'}]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Kryptolebias marmoratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GCA_001407235.2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA261052', 'title': 'Kudoa iwatai isolate:KIW-1.11.2010 Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'KIW2'}, {'db': 'SRA', 'value': 'SRS702300'}]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Kudoa iwatai</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GCF_022985175.1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA650519', 'title': 'Labeo rohita strain:BAU-BD-2019 Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Rangpur'}, {'db': 'SRA', 'value': 'SRS7316129'}]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Labeo rohita</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GCA_016984155.1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA599026', 'title': 'Project of basal ray-finned fishes'}]}]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Bowfin_001'}, {'db': 'SRA', 'value': 'SRS6201437'}]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Amia calva</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GCA_016984175.1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA599026', 'title': 'Project of basal ray-finned fishes'}]}]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'AlligatorGar_001'}, {'db': 'SRA', 'value': 'SRS6201438'}]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Atractosteus spatula</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GCA_944474145.2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB44434', 'title': 'Comparative genomics of parasitic flatworms'}]}]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS12247181'}]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Dicrocoelium dendriticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GCA_944470545.2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB44434', 'title': 'Comparative genomics of parasitic flatworms'}]}]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS12247175'}]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Heterobilharzia americana</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GCA_944470555.2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB44434', 'title': 'Comparative genomics of parasitic flatworms'}]}]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS12247176'}]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Heterobilharzia americana</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GCA_017590115.1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA417520', 'title': 'Genome sequencing and assembly of three snow finches and one tree sparrows'}]}]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'DNA of Black winged Snowfinch'}, {'db': 'SRA', 'value': 'SRS8455416'}]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Montifringilla adamsi</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GCF_017590055.1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA417520', 'title': 'Genome sequencing and assembly of three snow finches and one tree sparrows'}]}]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'WGS of White rumped Snowfinch'}, {'db': 'SRA', 'value': 'SRS8448440'}]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Onychostruthus taczanowskii</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GCA_017590055.1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA417520', 'title': 'Genome sequencing and assembly of three snow finches and one tree sparrows'}]}]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'WGS of White rumped Snowfinch'}, {'db': 'SRA', 'value': 'SRS8448440'}]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Onychostruthus taczanowskii</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GCA_001700915.1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA255814', 'title': 'Passer domesticus isolate:8887266 Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': '8887266'}, {'db': 'SRA', 'value': 'SRS671392'}]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Passer domesticus</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GCF_014805655.1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA417520', 'title': 'Genome sequencing and assembly of three snow finches and one tree sparrows'}]}]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'tree sparrows'}, {'db': 'SRA', 'value': 'SRS8455417'}]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Passer montanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GCA_014805655.1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA417520', 'title': 'Genome sequencing and assembly of three snow finches and one tree sparrows'}]}]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'tree sparrows'}, {'db': 'SRA', 'value': 'SRS8455417'}]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Passer montanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GCA_917208275.1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB47996', 'title': 'Patella pellucida (blue-rayed limpet) genome assembly, xgPatPell1', 'parent_accessions': ['PRJEB45187']}, {'accession': 'PRJEB45187', 'title': 'Patella pellucida (blue-rayed limpet)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS5279329'}]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Patella pellucida</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GCF_932274485.2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB51188', 'title': 'Patella vulgata (common limpet) genome assembly, xgPatVulg1', 'parent_accessions': ['PRJEB50732']}, {'accession': 'PRJEB50732', 'title': 'Patella vulgata (common limpet)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS5292703'}]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Patella vulgata</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GCA_932274485.2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB51188', 'title': 'Patella vulgata (common limpet) genome assembly, xgPatVulg1', 'parent_accessions': ['PRJEB50732']}, {'accession': 'PRJEB50732', 'title': 'Patella vulgata (common limpet)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS5292703'}]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Patella vulgata</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GCF_024362695.1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA804955', 'title': 'Pectinophora gossypiella genome sequencing', 'parent_accessions': ['PRJNA555319', 'PRJNA837612']}, {'accession': 'PRJNA555319', 'title': 'USDA Agricultural Research Service’s Ag100Pest Initiative', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJNA837612', 'title': 'Pectinophora gossypiella genome sequencing'}]}]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'ilPecGoss1'}, {'db': 'SRA', 'value': 'SRS11949311'}]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Pectinophora gossypiella</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GCA_024362695.1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA804955', 'title': 'Pectinophora gossypiella genome sequencing', 'parent_accessions': ['PRJNA555319', 'PRJNA837612']}, {'accession': 'PRJNA555319', 'title': 'USDA Agricultural Research Service’s Ag100Pest Initiative', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJNA837612', 'title': 'Pectinophora gossypiella genome sequencing'}]}]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'ilPecGoss1'}, {'db': 'SRA', 'value': 'SRS11949311'}]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Pectinophora gossypiella</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GCA_933228935.1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB51589', 'title': 'Pemphredon lugubris (mournful wasp) genome assembly, iyPemLugu1', 'parent_accessions': ['PRJEB50731']}, {'accession': 'PRJEB50731', 'title': 'Pemphredon lugubris (mournful wasp)', 'parent_accessions': ['PRJEB40665']}, {'accession': 'PRJEB40665', 'title': 'Darwin Tree of Life Project: Genome Data and Assemblies', 'parent_accessions': ['PRJNA533106', 'PRJEB43510']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}, {'accession': 'PRJEB43510', 'title': 'The European Reference Genome Atlas (ERGA)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS6287763'}]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Pemphredon lugubris</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GCF_019202785.1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA691453', 'title': 'Penaeus chinensis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'M1'}, {'db': 'SRA', 'value': 'SRS8044758'}]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Penaeus chinensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GCA_022598595.1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA386064', 'title': 'Antrodia cinnamomea Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Antrodia cinnamomea V7'}, {'db': 'SRA', 'value': 'SRS9046939'}]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Taiwanofungus camphoratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GCA_022598625.1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA386064', 'title': 'Antrodia cinnamomea Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Antrodia cinnamomea W1'}, {'db': 'SRA', 'value': 'SRS9046938'}]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Taiwanofungus camphoratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GCA_022598655.1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA386064', 'title': 'Antrodia cinnamomea Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Antrodia cinnamomea V5'}, {'db': 'SRA', 'value': 'SRS9046954'}]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Taiwanofungus camphoratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GCA_022598685.1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA386064', 'title': 'Antrodia cinnamomea Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Antrodia cinnamomea W2'}, {'db': 'SRA', 'value': 'SRS9046946'}]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Taiwanofungus camphoratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GCA_906901685.1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJEB39696', 'title': 'Biodiversity genomics of small metazoa: high quality de novo genomes from single specimens of field-collected and ethanol-preserved springtails', 'parent_accessions': ['PRJNA706923']}, {'accession': 'PRJNA706923', 'title': 'LOEWE Centre for Translational Biodiversity Genomics (LOEWE-TBG)', 'parent_accessions': ['PRJNA533106']}, {'accession': 'PRJNA533106', 'title': 'Earth BioGenome Project (EBP)'}]}]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[{'db': 'SRA', 'value': 'ERS4876896'}]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Desoria tigrina</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GCA_016859345.1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA670841', 'title': 'The genomes of two billfishes provide insights into the evolution of endothermy in teleosts'}]}]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'SHS-SA01'}, {'db': 'SRA', 'value': 'SRS7572558'}]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Istiophorus platypterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GCA_024114885.1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA833952', 'title': 'Genome of septoria linicola SE15195'}]}]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Septoria linicola SE15195'}, {'db': 'SRA', 'value': 'SRS12843775'}]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Septoria linicola</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GCA_024291795.1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA833955', 'title': 'Genome of septoria linicola SE14017'}]}]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Septoria linicola SE14017'}, {'db': 'SRA', 'value': 'SRS12843774'}]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Septoria linicola</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GCF_002814215.2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA319656', 'title': 'Seriola lalandi dorsalis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Seriola dorsalis'}, {'db': 'SRA', 'value': 'SRS1624752'}]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Seriola lalandi dorsalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GCA_002814215.1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[{'bioprojects': [{'accession': 'PRJNA319656', 'title': 'Seriola lalandi dorsalis Genome sequencing and assembly'}]}]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[{'label': 'Sample name', 'value': 'Seriola dorsalis'}, {'db': 'SRA', 'value': 'SRS1624752'}]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Seriola lalandi dorsalis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>